--- a/src/main/java/com/denovo/ExcelData/Params.xlsx
+++ b/src/main/java/com/denovo/ExcelData/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE53AF5-877A-4E1B-B01D-0AE26B75EA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71A54B-ABE6-4B82-9899-783865487675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{E36F034F-CFF8-4D44-A29C-6E63C19DA2CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{E36F034F-CFF8-4D44-A29C-6E63C19DA2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Receipt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="CustomFee" sheetId="5" r:id="rId5"/>
     <sheet name="SurchargeFee" sheetId="6" r:id="rId6"/>
     <sheet name="DTI" sheetId="7" r:id="rId7"/>
+    <sheet name="ValueAdd" sheetId="8" r:id="rId8"/>
+    <sheet name="Integration" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Receipt!#REF!</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>Header 1</t>
   </si>
@@ -75,9 +77,6 @@
     <t>Customer Copy</t>
   </si>
   <si>
-    <t>SMS:Email:Paper</t>
-  </si>
-  <si>
     <t>Tip</t>
   </si>
   <si>
@@ -237,9 +236,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Bhuyakae</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -286,13 +282,58 @@
   </si>
   <si>
     <t>Debit Card Tx Amount</t>
+  </si>
+  <si>
+    <t>SMS,Email,Paper</t>
+  </si>
+  <si>
+    <t>Customer Survey</t>
+  </si>
+  <si>
+    <t>Validate customer survey Question</t>
+  </si>
+  <si>
+    <t>Tag the TX</t>
+  </si>
+  <si>
+    <t>Tag Label</t>
+  </si>
+  <si>
+    <t>Spin</t>
+  </si>
+  <si>
+    <t>Register ID</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Custom Fee1</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Spin ModelL</t>
+  </si>
+  <si>
+    <t>Spin ModelC</t>
+  </si>
+  <si>
+    <t>SurveyQuestion</t>
+  </si>
+  <si>
+    <t>CustomLabe</t>
+  </si>
+  <si>
+    <t>142424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +357,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +376,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -369,6 +430,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,17 +752,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" customWidth="1"/>
-    <col min="4" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -755,97 +818,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D95681-9029-4917-85E9-B21C7FC4AB8F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -862,60 +924,60 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.6328125" customWidth="1"/>
-    <col min="3" max="3" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
+    <col min="1" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -932,61 +994,61 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,92 +1061,92 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="25.36328125" customWidth="1"/>
-    <col min="10" max="10" width="26.6328125" customWidth="1"/>
-    <col min="11" max="11" width="35.90625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1097,100 +1159,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2376A26F-6F78-4FB1-B2F0-7C21C4038999}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="1" sqref="C2 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="32.6328125" customWidth="1"/>
-    <col min="12" max="12" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1202,65 +1264,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494C6B5F-51CD-49D9-BBC4-CA0CF54B3FF1}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195F32DB-8E18-4E1D-AF9F-FEBE9398A450}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBCB36-7B35-4314-91DE-39B42C38C945}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
